--- a/000 TABLAS GENERALES/10-01 Colección AGRICULTURA.xlsx
+++ b/000 TABLAS GENERALES/10-01 Colección AGRICULTURA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\Diseño DATA's\DATA-COMUN\000 TABLAS GENERALES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\Diseño DATA's (1)\DATA-COMUN\000 TABLAS GENERALES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE921E5-5680-4430-A3B4-7709BEAE5EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002DE6AF-E778-4B1C-94E6-ACDC307D85CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{BADCD3CB-093B-41F5-A336-01B5D97B01B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Industria" sheetId="2" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Codigo</t>
   </si>
   <si>
-    <t>Agricultura y Ganadería</t>
-  </si>
-  <si>
     <t>AGR - 10</t>
   </si>
   <si>
@@ -754,6 +751,9 @@
   </si>
   <si>
     <t>Zapallo Camote</t>
+  </si>
+  <si>
+    <t>Agropecuario y Forestal</t>
   </si>
 </sst>
 </file>
@@ -761,7 +761,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -919,9 +919,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1039,6 +1039,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
@@ -2156,13 +2162,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>27305</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
+      <xdr:colOff>140335</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7440</xdr:rowOff>
+      <xdr:rowOff>10615</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2232,15 +2238,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>178435</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:colOff>164465</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>163015</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2310,15 +2316,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
+      <xdr:colOff>560705</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1173480</xdr:colOff>
+      <xdr:colOff>1170305</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>167460</xdr:rowOff>
+      <xdr:rowOff>164285</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2388,15 +2394,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1203960</xdr:colOff>
+      <xdr:colOff>1207135</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>10795</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>746760</xdr:colOff>
+      <xdr:colOff>749935</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>167460</xdr:rowOff>
+      <xdr:rowOff>164285</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -2602,8 +2608,8 @@
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
   <slicer name="Industria" xr10:uid="{B77F4C3B-1E6F-44BC-8D8D-E6B3EA184597}" cache="SegmentaciónDeDatos_Industria" caption="Industria" style="SlicerStyleDark1" rowHeight="234950"/>
   <slicer name="Sector" xr10:uid="{FF7AA0F4-9660-460D-B2AE-353118A2D7F9}" cache="SegmentaciónDeDatos_Sector" caption="Sector" columnCount="2" style="SlicerStyleDark2" rowHeight="234950"/>
-  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" startItem="8" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
-  <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" startItem="3" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
+  <slicer name="Producto" xr10:uid="{B125ED2F-B418-43BC-8483-A3E970856379}" cache="SegmentaciónDeDatos_Producto" caption="Producto" startItem="6" columnCount="2" style="SlicerStyleDark6" rowHeight="234950"/>
+  <slicer name="Categoría" xr10:uid="{7A113C3F-48D3-4EAB-AD86-BC4F27FE844F}" cache="SegmentaciónDeDatos_Categoría" caption="Categoría" columnCount="3" style="SlicerStyleDark4" rowHeight="234950"/>
 </slicers>
 </file>
 
@@ -3028,19 +3034,19 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" customWidth="1"/>
+    <col min="4" max="4" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -3057,15 +3063,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="39">
         <v>10</v>
       </c>
       <c r="B5" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>6</v>
       </c>
       <c r="D5" s="40" t="str">
         <f>+"Industria: "&amp;Industria[[#This Row],[Descripcion]]</f>
@@ -3073,7 +3079,7 @@
       </c>
       <c r="E5" s="30" t="str">
         <f t="shared" ref="E5" si="0">+"INSERT INTO industria VALUES ("&amp;A5&amp;",'"&amp;B5&amp;"','"&amp;C5&amp;"','"&amp;D5&amp;"');"</f>
-        <v>INSERT INTO industria VALUES (10,'Agricultura y Ganadería','AGR - 10','Industria: AGR - 10');</v>
+        <v>INSERT INTO industria VALUES (10,'Agropecuario y Forestal','AGR - 10','Industria: AGR - 10');</v>
       </c>
     </row>
   </sheetData>
@@ -3094,26 +3100,26 @@
       <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="8" width="59.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.36328125" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" customWidth="1"/>
+    <col min="5" max="5" width="26.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.81640625" customWidth="1"/>
+    <col min="8" max="8" width="59.08984375" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:8" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H9" s="38">
         <f>+SUBTOTAL(3,Sector[Sector])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="24" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -3121,13 +3127,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>8</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>9</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>2</v>
@@ -3139,13 +3145,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="str">
         <f>+VLOOKUP(Sector[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C11" s="19">
         <f t="shared" ref="C11" si="0">+A11*100+D11</f>
@@ -3155,10 +3161,10 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3" t="str">
         <f>+"Sector: "&amp;Sector[[#This Row],[Descripcion]]&amp;" | "&amp;VLOOKUP(Sector[[#This Row],[Id_industria]],Industria[[Id_industria]:[Auxiliar]],4,0)</f>
@@ -3190,32 +3196,32 @@
   <dimension ref="A7:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="10" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="5.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="5.81640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.6328125" customWidth="1"/>
+    <col min="6" max="6" width="5.6328125" customWidth="1"/>
+    <col min="7" max="7" width="25.36328125" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="33" customWidth="1"/>
-    <col min="10" max="10" width="64.77734375" customWidth="1"/>
+    <col min="10" max="10" width="64.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="J9" s="38">
         <f>+SUBTOTAL(3,Productos[Producto])</f>
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="31.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -3223,19 +3229,19 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>14</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>2</v>
@@ -3247,13 +3253,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C11" s="17">
         <v>1001</v>
@@ -3270,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="I11" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3288,14 +3294,14 @@
         <v>100101 Producto|| Berries</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <f>+A11</f>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C12" s="17">
         <f t="shared" ref="C12:C24" si="1">+IF(F12=1,C11+1,C11)</f>
@@ -3313,10 +3319,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3331,14 +3337,14 @@
         <v>100102 Producto|| Cítricos</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <f t="shared" ref="A13:A24" si="3">+A12</f>
         <v>10</v>
       </c>
       <c r="B13" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C13" s="17">
         <f t="shared" si="1"/>
@@ -3356,10 +3362,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I13" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3374,14 +3380,14 @@
         <v>100103 Producto|| Frutos de hueso (carozo)</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B14" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C14" s="17">
         <f t="shared" si="1"/>
@@ -3399,10 +3405,10 @@
         <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3417,14 +3423,14 @@
         <v>100104 Producto|| Frutos de pepita</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B15" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C15" s="17">
         <f t="shared" si="1"/>
@@ -3442,10 +3448,10 @@
         <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3460,14 +3466,14 @@
         <v>100105 Producto|| Frutos secos</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B16" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C16" s="17">
         <f t="shared" si="1"/>
@@ -3485,10 +3491,10 @@
         <v>6</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3503,14 +3509,14 @@
         <v>100106 Producto|| Frutos oleaginosos</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A17" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B17" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C17" s="17">
         <f t="shared" si="1"/>
@@ -3528,10 +3534,10 @@
         <v>7</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3546,14 +3552,14 @@
         <v>100107 Producto|| Otros</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A18" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B18" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C18" s="17">
         <f t="shared" si="1"/>
@@ -3571,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3589,14 +3595,14 @@
         <v>100108 Producto|| Tropicales y subtropicales</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A19" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B19" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C19" s="17">
         <f t="shared" si="1"/>
@@ -3614,10 +3620,10 @@
         <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3632,14 +3638,14 @@
         <v>100109 Producto|| Uva</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A20" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B20" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C20" s="17">
         <f t="shared" si="1"/>
@@ -3657,10 +3663,10 @@
         <v>10</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="I20" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3675,14 +3681,14 @@
         <v>100110 Producto|| Legumbres</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A21" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B21" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C21" s="17">
         <f t="shared" si="1"/>
@@ -3700,10 +3706,10 @@
         <v>11</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3718,14 +3724,14 @@
         <v>100111 Producto|| Cereales</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A22" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B22" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C22" s="17">
         <f t="shared" si="1"/>
@@ -3743,10 +3749,10 @@
         <v>12</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3761,14 +3767,14 @@
         <v>100112 Producto|| Hortalizas</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A23" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B23" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C23" s="17">
         <f t="shared" si="1"/>
@@ -3786,10 +3792,10 @@
         <v>13</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3804,14 +3810,14 @@
         <v>100113 Producto|| Industriales</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B24" s="4" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C24" s="17">
         <f t="shared" si="1"/>
@@ -3829,10 +3835,10 @@
         <v>14</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" s="3" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3847,14 +3853,14 @@
         <v>100114 Producto|| Tubérculos</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <f>+A24</f>
         <v>10</v>
       </c>
       <c r="B25" s="32" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C25" s="17">
         <f>+IF(F25=1,C24+1,C24)</f>
@@ -3872,10 +3878,10 @@
         <v>15</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I25" s="31" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3886,14 +3892,14 @@
         <v>INSERT INTO producto VALUES (100115,'Semillas','Semillas','Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <f>+A24</f>
         <v>10</v>
       </c>
       <c r="B26" s="32" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C26" s="17">
         <f>+IF(F26=1,C24+1,C24)</f>
@@ -3911,10 +3917,10 @@
         <v>16</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I26" s="31" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3925,14 +3931,14 @@
         <v>INSERT INTO producto VALUES (100116,'Especias','Especias','Prod: Especias-100116 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <f>+A24</f>
         <v>10</v>
       </c>
       <c r="B27" s="32" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C27" s="17">
         <f>+IF(F27=1,C24+1,C24)</f>
@@ -3950,10 +3956,10 @@
         <v>17</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="I27" s="31" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -3964,14 +3970,14 @@
         <v>INSERT INTO producto VALUES (100117,'Plantas y forraje','Forraje','Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',1001);</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="24" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <f>+A24</f>
         <v>10</v>
       </c>
       <c r="B28" s="32" t="str">
         <f>+VLOOKUP(Productos[[#This Row],[Id_industria]],Industria[[Id_industria]:[Industria]],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C28" s="17">
         <f>+IF(F28=1,C24+1,C24)</f>
@@ -3989,10 +3995,10 @@
         <v>18</v>
       </c>
       <c r="G28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="I28" s="31" t="str">
         <f>+"Prod: "&amp;Productos[[#This Row],[Descripcion]]&amp;"-"&amp;Productos[[#This Row],[Id_producto]]&amp;" | "&amp;VLOOKUP(Productos[[#This Row],[Id_sector]],Sector[[Id_sector]:[Auxiliar]],5,0)</f>
@@ -4027,35 +4033,35 @@
   <dimension ref="A8:M209"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F201" sqref="F201"/>
+      <pane ySplit="9" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F216" sqref="F216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="4.77734375" customWidth="1"/>
-    <col min="9" max="9" width="21.77734375" customWidth="1"/>
-    <col min="10" max="10" width="24.44140625" customWidth="1"/>
-    <col min="11" max="11" width="29.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20.109375" customWidth="1"/>
-    <col min="13" max="13" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.453125" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" customWidth="1"/>
+    <col min="5" max="5" width="9.08984375" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="4.81640625" customWidth="1"/>
+    <col min="9" max="9" width="21.81640625" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" customWidth="1"/>
+    <col min="11" max="11" width="29.453125" customWidth="1"/>
+    <col min="12" max="12" width="20.08984375" customWidth="1"/>
+    <col min="13" max="13" width="49.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E8" s="14"/>
       <c r="G8" s="14">
         <f>+SUBTOTAL(3,Categorias[Id_categoría])</f>
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -4063,25 +4069,25 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>2</v>
@@ -4090,19 +4096,19 @@
         <v>3</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M9" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A10" s="12">
         <v>10</v>
       </c>
       <c r="B10" s="8" t="str">
         <f>+VLOOKUP(A10,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C10" s="12">
         <v>1001</v>
@@ -4126,7 +4132,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J10" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4145,14 +4151,14 @@
         <v>INSERT INTO categoria VALUES (100101001,'Arándano','Arándano-100101001','Arándano-100101001 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <f>+A10</f>
         <v>10</v>
       </c>
       <c r="B11" s="8" t="str">
         <f>+VLOOKUP(A11,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C11" s="12">
         <f>+C10</f>
@@ -4178,7 +4184,7 @@
         <v>2</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J11" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4197,14 +4203,14 @@
         <v>INSERT INTO categoria VALUES (100101002,'Calafate','Calafate-100101002','Calafate-100101002 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A12" s="12">
         <f t="shared" ref="A12:A107" si="3">+A11</f>
         <v>10</v>
       </c>
       <c r="B12" s="8" t="str">
         <f>+VLOOKUP(A12,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C12" s="12">
         <f t="shared" ref="C12:C107" si="4">+C11</f>
@@ -4230,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J12" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4249,14 +4255,14 @@
         <v>INSERT INTO categoria VALUES (100101003,'Cranberry','Cranberry-100101003','Cranberry-100101003 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B13" s="8" t="str">
         <f>+VLOOKUP(A13,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C13" s="12">
         <f t="shared" si="4"/>
@@ -4282,7 +4288,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J13" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4301,14 +4307,14 @@
         <v>INSERT INTO categoria VALUES (100101004,'Frambuesa','Frambuesa-100101004','Frambuesa-100101004 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A14" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B14" s="8" t="str">
         <f>+VLOOKUP(A14,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C14" s="12">
         <f t="shared" si="4"/>
@@ -4334,7 +4340,7 @@
         <v>5</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4353,14 +4359,14 @@
         <v>INSERT INTO categoria VALUES (100101005,'Haskap','Haskap-100101005','Haskap-100101005 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B15" s="8" t="str">
         <f>+VLOOKUP(A15,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C15" s="12">
         <f t="shared" si="4"/>
@@ -4386,7 +4392,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4405,14 +4411,14 @@
         <v>INSERT INTO categoria VALUES (100101006,'Higo','Higo-100101006','Higo-100101006 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A16" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B16" s="8" t="str">
         <f>+VLOOKUP(A16,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C16" s="12">
         <f t="shared" si="4"/>
@@ -4438,7 +4444,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J16" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4457,14 +4463,14 @@
         <v>INSERT INTO categoria VALUES (100101007,'Kiwi','Kiwi-100101007','Kiwi-100101007 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B17" s="8" t="str">
         <f>+VLOOKUP(A17,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C17" s="12">
         <f t="shared" si="4"/>
@@ -4490,7 +4496,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J17" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4509,14 +4515,14 @@
         <v>INSERT INTO categoria VALUES (100101008,'Mora','Mora-100101008','Mora-100101008 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B18" s="8" t="str">
         <f>+VLOOKUP(A18,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C18" s="12">
         <f t="shared" si="4"/>
@@ -4542,7 +4548,7 @@
         <v>9</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J18" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4561,14 +4567,14 @@
         <v>INSERT INTO categoria VALUES (100101009,'Murtilla','Murtilla-100101009','Murtilla-100101009 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B19" s="8" t="str">
         <f>+VLOOKUP(A19,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C19" s="12">
         <f t="shared" si="4"/>
@@ -4594,7 +4600,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J19" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4613,14 +4619,14 @@
         <v>INSERT INTO categoria VALUES (100101010,'Zarzaparrilla','Zarzaparrilla-100101010','Zarzaparrilla-100101010 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12">
         <f>+A19</f>
         <v>10</v>
       </c>
       <c r="B20" s="8" t="str">
         <f>+VLOOKUP(A20,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C20" s="12">
         <f>+C19</f>
@@ -4646,7 +4652,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4665,14 +4671,14 @@
         <v>INSERT INTO categoria VALUES (100101011,'Otros berries','Otros berries-100101011','Otros berries-100101011 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A21" s="12">
         <f>+A20</f>
         <v>10</v>
       </c>
       <c r="B21" s="8" t="str">
         <f>+VLOOKUP(A21,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C21" s="12">
         <f>+C20</f>
@@ -4698,7 +4704,7 @@
         <v>12</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4717,14 +4723,14 @@
         <v>INSERT INTO categoria VALUES (100101012,'Elderberry','Elderberry-100101012','Elderberry-100101012 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A22" s="12">
         <f>+A21</f>
         <v>10</v>
       </c>
       <c r="B22" s="8" t="str">
         <f>+VLOOKUP(A22,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C22" s="12">
         <f>+C21</f>
@@ -4750,7 +4756,7 @@
         <v>13</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4769,14 +4775,14 @@
         <v>INSERT INTO categoria VALUES (100101013,'Sanddorn','Sanddorn-100101013','Sanddorn-100101013 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A23" s="12">
         <f>+A21</f>
         <v>10</v>
       </c>
       <c r="B23" s="8" t="str">
         <f>+VLOOKUP(A23,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C23" s="12">
         <f>+C21</f>
@@ -4802,7 +4808,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J23" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4821,14 +4827,14 @@
         <v>INSERT INTO categoria VALUES (100101014,'Acai berry','Acai berry-100101014','Acai berry-100101014 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A24" s="12">
         <f>+A23</f>
         <v>10</v>
       </c>
       <c r="B24" s="8" t="str">
         <f>+VLOOKUP(A24,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C24" s="12">
         <f>+C23</f>
@@ -4854,7 +4860,7 @@
         <v>15</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J24" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4873,14 +4879,14 @@
         <v>INSERT INTO categoria VALUES (100101015,'Mora Silvestre','Mora Silvestre-100101015','Mora Silvestre-100101015 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <f>+A23</f>
         <v>10</v>
       </c>
       <c r="B25" s="8" t="str">
         <f>+VLOOKUP(A25,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C25" s="12">
         <f>+C23</f>
@@ -4906,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J25" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4925,14 +4931,14 @@
         <v>INSERT INTO categoria VALUES (100101016,'Mora Cultivada','Mora Cultivada-100101016','Mora Cultivada-100101016 | Prod: Perennes-100101 | Sector: Agr-1001 | Industria: AGR - 10',100101);</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A26" s="12">
         <f>+A21</f>
         <v>10</v>
       </c>
       <c r="B26" s="8" t="str">
         <f>+VLOOKUP(A26,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C26" s="12">
         <f>+C21</f>
@@ -4958,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J26" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -4977,14 +4983,14 @@
         <v>INSERT INTO categoria VALUES (100102001,'Kumquat','Kumquat-100102001','Kumquat-100102001 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A27" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B27" s="8" t="str">
         <f>+VLOOKUP(A27,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C27" s="12">
         <f t="shared" si="4"/>
@@ -5010,7 +5016,7 @@
         <v>2</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J27" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5029,14 +5035,14 @@
         <v>INSERT INTO categoria VALUES (100102002,'Lima','Lima-100102002','Lima-100102002 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A28" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B28" s="8" t="str">
         <f>+VLOOKUP(A28,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C28" s="12">
         <f t="shared" si="4"/>
@@ -5062,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5081,14 +5087,14 @@
         <v>INSERT INTO categoria VALUES (100102003,'Limón','Limón-100102003','Limón-100102003 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A29" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B29" s="8" t="str">
         <f>+VLOOKUP(A29,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C29" s="12">
         <f t="shared" si="4"/>
@@ -5114,7 +5120,7 @@
         <v>4</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J29" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5133,14 +5139,14 @@
         <v>INSERT INTO categoria VALUES (100102004,'Mandarina','Mandarina-100102004','Mandarina-100102004 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A30" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B30" s="8" t="str">
         <f>+VLOOKUP(A30,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C30" s="12">
         <f t="shared" si="4"/>
@@ -5166,7 +5172,7 @@
         <v>5</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5185,14 +5191,14 @@
         <v>INSERT INTO categoria VALUES (100102005,'Naranja','Naranja-100102005','Naranja-100102005 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B31" s="8" t="str">
         <f>+VLOOKUP(A31,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C31" s="12">
         <f t="shared" si="4"/>
@@ -5218,7 +5224,7 @@
         <v>6</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5237,14 +5243,14 @@
         <v>INSERT INTO categoria VALUES (100102006,'Pomelo','Pomelo-100102006','Pomelo-100102006 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A32" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B32" s="8" t="str">
         <f>+VLOOKUP(A32,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C32" s="12">
         <f t="shared" si="4"/>
@@ -5270,7 +5276,7 @@
         <v>7</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J32" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5289,14 +5295,14 @@
         <v>INSERT INTO categoria VALUES (100102007,'Tangelo','Tangelo-100102007','Tangelo-100102007 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A33" s="12">
         <f>+A32</f>
         <v>10</v>
       </c>
       <c r="B33" s="8" t="str">
         <f>+VLOOKUP(A33,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C33" s="12">
         <f>+C32</f>
@@ -5322,7 +5328,7 @@
         <v>8</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J33" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5341,14 +5347,14 @@
         <v>INSERT INTO categoria VALUES (100102008,'Otros cítricos','Otros cítricos-100102008','Otros cítricos-100102008 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A34" s="12">
         <f>+A33</f>
         <v>10</v>
       </c>
       <c r="B34" s="8" t="str">
         <f>+VLOOKUP(A34,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C34" s="12">
         <f>+C33</f>
@@ -5374,7 +5380,7 @@
         <v>9</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J34" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5393,14 +5399,14 @@
         <v>INSERT INTO categoria VALUES (100102009,'Frutos Cítricos','Frutos Cítricos-100102009','Frutos Cítricos-100102009 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A35" s="12">
         <f>+A33</f>
         <v>10</v>
       </c>
       <c r="B35" s="8" t="str">
         <f>+VLOOKUP(A35,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C35" s="12">
         <f>+C33</f>
@@ -5426,7 +5432,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J35" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5445,14 +5451,14 @@
         <v>INSERT INTO categoria VALUES (100102010,'Clementina','Clementina-100102010','Clementina-100102010 | Prod: Perennes-100102 | Sector: Agr-1001 | Industria: AGR - 10',100102);</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A36" s="12">
         <f>+A32</f>
         <v>10</v>
       </c>
       <c r="B36" s="8" t="str">
         <f>+VLOOKUP(A36,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C36" s="12">
         <f>+C32</f>
@@ -5478,7 +5484,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J36" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5497,14 +5503,14 @@
         <v>INSERT INTO categoria VALUES (100103001,'Cereza','Cereza-100103001','Cereza-100103001 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A37" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B37" s="8" t="str">
         <f>+VLOOKUP(A37,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C37" s="12">
         <f t="shared" si="4"/>
@@ -5530,7 +5536,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J37" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5549,14 +5555,14 @@
         <v>INSERT INTO categoria VALUES (100103002,'Ciruela','Ciruela-100103002','Ciruela-100103002 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A38" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B38" s="8" t="str">
         <f>+VLOOKUP(A38,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C38" s="12">
         <f t="shared" si="4"/>
@@ -5582,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J38" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5601,14 +5607,14 @@
         <v>INSERT INTO categoria VALUES (100103003,'Damasco','Damasco-100103003','Damasco-100103003 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A39" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B39" s="8" t="str">
         <f>+VLOOKUP(A39,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C39" s="12">
         <f t="shared" si="4"/>
@@ -5634,7 +5640,7 @@
         <v>4</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J39" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5653,14 +5659,14 @@
         <v>INSERT INTO categoria VALUES (100103004,'Durazno','Durazno-100103004','Durazno-100103004 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A40" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B40" s="8" t="str">
         <f>+VLOOKUP(A40,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C40" s="12">
         <f t="shared" si="4"/>
@@ -5686,7 +5692,7 @@
         <v>5</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J40" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5705,14 +5711,14 @@
         <v>INSERT INTO categoria VALUES (100103005,'Guinda','Guinda-100103005','Guinda-100103005 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A41" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B41" s="8" t="str">
         <f>+VLOOKUP(A41,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C41" s="12">
         <f t="shared" si="4"/>
@@ -5738,7 +5744,7 @@
         <v>6</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J41" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5757,14 +5763,14 @@
         <v>INSERT INTO categoria VALUES (100103006,'Nectarín','Nectarín-100103006','Nectarín-100103006 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A42" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B42" s="8" t="str">
         <f>+VLOOKUP(A42,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C42" s="12">
         <f t="shared" si="4"/>
@@ -5790,7 +5796,7 @@
         <v>7</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J42" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5809,14 +5815,14 @@
         <v>INSERT INTO categoria VALUES (100103007,'Pluots','Pluots-100103007','Pluots-100103007 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12">
         <f>+A42</f>
         <v>10</v>
       </c>
       <c r="B43" s="8" t="str">
         <f>+VLOOKUP(A43,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C43" s="12">
         <f>+C42</f>
@@ -5842,7 +5848,7 @@
         <v>8</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J43" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5861,14 +5867,14 @@
         <v>INSERT INTO categoria VALUES (100103008,'Frutos de hueso (carozo)','Frutos de hueso (carozo)-100103008','Frutos de hueso (carozo)-100103008 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A44" s="12">
         <f>+A42</f>
         <v>10</v>
       </c>
       <c r="B44" s="8" t="str">
         <f>+VLOOKUP(A44,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C44" s="12">
         <f>+C42</f>
@@ -5894,7 +5900,7 @@
         <v>9</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J44" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5913,14 +5919,14 @@
         <v>INSERT INTO categoria VALUES (100103009,'Acerola','Acerola-100103009','Acerola-100103009 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A45" s="12">
         <f>+A44</f>
         <v>10</v>
       </c>
       <c r="B45" s="8" t="str">
         <f>+VLOOKUP(A45,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C45" s="12">
         <f>+C44</f>
@@ -5946,7 +5952,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J45" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -5965,14 +5971,14 @@
         <v>INSERT INTO categoria VALUES (100103010,'Ciruela Japonesa','Ciruela Japonesa-100103010','Ciruela Japonesa-100103010 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A46" s="12">
         <f>+A44</f>
         <v>10</v>
       </c>
       <c r="B46" s="8" t="str">
         <f>+VLOOKUP(A46,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C46" s="12">
         <f>+C44</f>
@@ -5998,7 +6004,7 @@
         <v>11</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J46" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6017,14 +6023,14 @@
         <v>INSERT INTO categoria VALUES (100103011,'Durazno Fresco','Durazno Fresco-100103011','Durazno Fresco-100103011 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A47" s="12">
         <f>+A44</f>
         <v>10</v>
       </c>
       <c r="B47" s="8" t="str">
         <f>+VLOOKUP(A47,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C47" s="12">
         <f>+C44</f>
@@ -6050,7 +6056,7 @@
         <v>12</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J47" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6069,14 +6075,14 @@
         <v>INSERT INTO categoria VALUES (100103012,'Durazno Conservero','Durazno Conservero-100103012','Durazno Conservero-100103012 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A48" s="12">
         <f>+A44</f>
         <v>10</v>
       </c>
       <c r="B48" s="8" t="str">
         <f>+VLOOKUP(A48,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C48" s="12">
         <f>+C44</f>
@@ -6102,7 +6108,7 @@
         <v>13</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J48" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6121,14 +6127,14 @@
         <v>INSERT INTO categoria VALUES (100103013,'Ciruela Europea','Ciruela Europea-100103013','Ciruela Europea-100103013 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A49" s="12">
         <f>+A44</f>
         <v>10</v>
       </c>
       <c r="B49" s="8" t="str">
         <f>+VLOOKUP(A49,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C49" s="12">
         <f>+C44</f>
@@ -6154,7 +6160,7 @@
         <v>14</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J49" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6173,14 +6179,14 @@
         <v>INSERT INTO categoria VALUES (100103014,'Guinda Ácida','Guinda Ácida-100103014','Guinda Ácida-100103014 | Prod: Perennes-100103 | Sector: Agr-1001 | Industria: AGR - 10',100103);</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A50" s="12">
         <f>+A42</f>
         <v>10</v>
       </c>
       <c r="B50" s="8" t="str">
         <f>+VLOOKUP(A50,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C50" s="12">
         <f>+C42</f>
@@ -6206,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J50" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6225,14 +6231,14 @@
         <v>INSERT INTO categoria VALUES (100104001,'Granada','Granada-100104001','Granada-100104001 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A51" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B51" s="8" t="str">
         <f>+VLOOKUP(A51,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C51" s="12">
         <f t="shared" si="4"/>
@@ -6258,7 +6264,7 @@
         <v>2</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J51" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6277,14 +6283,14 @@
         <v>INSERT INTO categoria VALUES (100104002,'Manzana','Manzana-100104002','Manzana-100104002 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A52" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B52" s="8" t="str">
         <f>+VLOOKUP(A52,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C52" s="12">
         <f t="shared" si="4"/>
@@ -6310,7 +6316,7 @@
         <v>3</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J52" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6329,14 +6335,14 @@
         <v>INSERT INTO categoria VALUES (100104003,'Membrillo','Membrillo-100104003','Membrillo-100104003 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A53" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B53" s="8" t="str">
         <f>+VLOOKUP(A53,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C53" s="12">
         <f t="shared" si="4"/>
@@ -6362,7 +6368,7 @@
         <v>4</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J53" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6381,14 +6387,14 @@
         <v>INSERT INTO categoria VALUES (100104004,'Níspero','Níspero-100104004','Níspero-100104004 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A54" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B54" s="8" t="str">
         <f>+VLOOKUP(A54,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C54" s="12">
         <f t="shared" si="4"/>
@@ -6414,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J54" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6433,14 +6439,14 @@
         <v>INSERT INTO categoria VALUES (100104005,'Pera','Pera-100104005','Pera-100104005 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A55" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B55" s="8" t="str">
         <f>+VLOOKUP(A55,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C55" s="12">
         <f t="shared" si="4"/>
@@ -6466,7 +6472,7 @@
         <v>6</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J55" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6485,14 +6491,14 @@
         <v>INSERT INTO categoria VALUES (100104006,'Rosa Mosqueta','Rosa Mosqueta-100104006','Rosa Mosqueta-100104006 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A56" s="12">
         <f>+A55</f>
         <v>10</v>
       </c>
       <c r="B56" s="8" t="str">
         <f>+VLOOKUP(A56,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C56" s="12">
         <f>+C55</f>
@@ -6518,7 +6524,7 @@
         <v>7</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6537,14 +6543,14 @@
         <v>INSERT INTO categoria VALUES (100104007,'Frutos de pepita','Frutos de pepita-100104007','Frutos de pepita-100104007 | Prod: Perennes-100104 | Sector: Agr-1001 | Industria: AGR - 10',100104);</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A57" s="12">
         <f>+A55</f>
         <v>10</v>
       </c>
       <c r="B57" s="8" t="str">
         <f>+VLOOKUP(A57,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C57" s="12">
         <f>+C55</f>
@@ -6570,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J57" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6589,14 +6595,14 @@
         <v>INSERT INTO categoria VALUES (100105001,'Almendra','Almendra-100105001','Almendra-100105001 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A58" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B58" s="8" t="str">
         <f>+VLOOKUP(A58,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C58" s="12">
         <f t="shared" si="4"/>
@@ -6622,7 +6628,7 @@
         <v>2</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J58" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6641,14 +6647,14 @@
         <v>INSERT INTO categoria VALUES (100105002,'Avellana','Avellana-100105002','Avellana-100105002 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B59" s="8" t="str">
         <f>+VLOOKUP(A59,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C59" s="12">
         <f t="shared" si="4"/>
@@ -6674,7 +6680,7 @@
         <v>3</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J59" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6693,14 +6699,14 @@
         <v>INSERT INTO categoria VALUES (100105003,'Castaña','Castaña-100105003','Castaña-100105003 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A60" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B60" s="8" t="str">
         <f>+VLOOKUP(A60,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C60" s="12">
         <f t="shared" si="4"/>
@@ -6726,7 +6732,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J60" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6745,14 +6751,14 @@
         <v>INSERT INTO categoria VALUES (100105004,'Nuez','Nuez-100105004','Nuez-100105004 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A61" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B61" s="8" t="str">
         <f>+VLOOKUP(A61,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C61" s="12">
         <f t="shared" si="4"/>
@@ -6778,7 +6784,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J61" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6797,14 +6803,14 @@
         <v>INSERT INTO categoria VALUES (100105005,'Pistacho','Pistacho-100105005','Pistacho-100105005 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A62" s="12">
         <f>+A61</f>
         <v>10</v>
       </c>
       <c r="B62" s="8" t="str">
         <f>+VLOOKUP(A62,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C62" s="12">
         <f>+C61</f>
@@ -6830,7 +6836,7 @@
         <v>6</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J62" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6849,14 +6855,14 @@
         <v>INSERT INTO categoria VALUES (100105006,'Otros frutos secos','Otros frutos secos-100105006','Otros frutos secos-100105006 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A63" s="12">
         <f>+A62</f>
         <v>10</v>
       </c>
       <c r="B63" s="8" t="str">
         <f>+VLOOKUP(A63,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C63" s="12">
         <f>+C62</f>
@@ -6882,7 +6888,7 @@
         <v>7</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J63" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6901,14 +6907,14 @@
         <v>INSERT INTO categoria VALUES (100105007,'Nuez de Macadamia','Nuez de Macadamia-100105007','Nuez de Macadamia-100105007 | Prod: Perennes-100105 | Sector: Agr-1001 | Industria: AGR - 10',100105);</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A64" s="12">
         <f>+A61</f>
         <v>10</v>
       </c>
       <c r="B64" s="8" t="str">
         <f>+VLOOKUP(A64,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C64" s="12">
         <f>+C61</f>
@@ -6934,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J64" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -6953,14 +6959,14 @@
         <v>INSERT INTO categoria VALUES (100106001,'Olivo','Olivo-100106001','Olivo-100106001 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A65" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B65" s="8" t="str">
         <f>+VLOOKUP(A65,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C65" s="12">
         <f t="shared" si="4"/>
@@ -6986,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J65" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7005,14 +7011,14 @@
         <v>INSERT INTO categoria VALUES (100106002,'Palta','Palta-100106002','Palta-100106002 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A66" s="12">
         <f>+A65</f>
         <v>10</v>
       </c>
       <c r="B66" s="8" t="str">
         <f>+VLOOKUP(A66,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C66" s="12">
         <f>+C65</f>
@@ -7038,7 +7044,7 @@
         <v>3</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J66" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7057,14 +7063,14 @@
         <v>INSERT INTO categoria VALUES (100106003,'Frutos oleaginosos','Frutos oleaginosos-100106003','Frutos oleaginosos-100106003 | Prod: Perennes-100106 | Sector: Agr-1001 | Industria: AGR - 10',100106);</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A67" s="12">
         <f>+A65</f>
         <v>10</v>
       </c>
       <c r="B67" s="8" t="str">
         <f>+VLOOKUP(A67,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C67" s="12">
         <f>+C65</f>
@@ -7090,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J67" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7109,14 +7115,14 @@
         <v>INSERT INTO categoria VALUES (100107001,'Caqui','Caqui-100107001','Caqui-100107001 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A68" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B68" s="8" t="str">
         <f>+VLOOKUP(A68,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C68" s="12">
         <f t="shared" si="4"/>
@@ -7142,7 +7148,7 @@
         <v>2</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J68" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7161,14 +7167,14 @@
         <v>INSERT INTO categoria VALUES (100107002,'Chirimoya','Chirimoya-100107002','Chirimoya-100107002 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A69" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B69" s="8" t="str">
         <f>+VLOOKUP(A69,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C69" s="12">
         <f t="shared" si="4"/>
@@ -7194,7 +7200,7 @@
         <v>3</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J69" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7213,14 +7219,14 @@
         <v>INSERT INTO categoria VALUES (100107003,'Dátil','Dátil-100107003','Dátil-100107003 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A70" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B70" s="8" t="str">
         <f>+VLOOKUP(A70,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C70" s="12">
         <f t="shared" si="4"/>
@@ -7246,7 +7252,7 @@
         <v>4</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J70" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7265,14 +7271,14 @@
         <v>INSERT INTO categoria VALUES (100107004,'Feijoa','Feijoa-100107004','Feijoa-100107004 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A71" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B71" s="8" t="str">
         <f>+VLOOKUP(A71,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C71" s="12">
         <f t="shared" si="4"/>
@@ -7298,7 +7304,7 @@
         <v>5</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J71" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7317,14 +7323,14 @@
         <v>INSERT INTO categoria VALUES (100107005,'Grosella','Grosella-100107005','Grosella-100107005 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A72" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B72" s="8" t="str">
         <f>+VLOOKUP(A72,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C72" s="12">
         <f t="shared" si="4"/>
@@ -7350,7 +7356,7 @@
         <v>6</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J72" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7369,14 +7375,14 @@
         <v>INSERT INTO categoria VALUES (100107006,'Jojoba','Jojoba-100107006','Jojoba-100107006 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A73" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B73" s="8" t="str">
         <f>+VLOOKUP(A73,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C73" s="12">
         <f t="shared" si="4"/>
@@ -7402,7 +7408,7 @@
         <v>7</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J73" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7421,14 +7427,14 @@
         <v>INSERT INTO categoria VALUES (100107007,'Lúcuma','Lúcuma-100107007','Lúcuma-100107007 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A74" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B74" s="8" t="str">
         <f>+VLOOKUP(A74,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C74" s="12">
         <f t="shared" si="4"/>
@@ -7454,7 +7460,7 @@
         <v>8</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J74" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7473,14 +7479,14 @@
         <v>INSERT INTO categoria VALUES (100107008,'Maqui','Maqui-100107008','Maqui-100107008 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A75" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B75" s="8" t="str">
         <f>+VLOOKUP(A75,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C75" s="12">
         <f t="shared" si="4"/>
@@ -7506,7 +7512,7 @@
         <v>9</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J75" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7525,14 +7531,14 @@
         <v>INSERT INTO categoria VALUES (100107009,'Michay','Michay-100107009','Michay-100107009 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A76" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B76" s="8" t="str">
         <f>+VLOOKUP(A76,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C76" s="12">
         <f t="shared" si="4"/>
@@ -7558,7 +7564,7 @@
         <v>10</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J76" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7577,14 +7583,14 @@
         <v>INSERT INTO categoria VALUES (100107010,'Sauco','Sauco-100107010','Sauco-100107010 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A77" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B77" s="8" t="str">
         <f>+VLOOKUP(A77,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C77" s="12">
         <f t="shared" si="4"/>
@@ -7610,7 +7616,7 @@
         <v>11</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J77" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7629,14 +7635,14 @@
         <v>INSERT INTO categoria VALUES (100107011,'Tuna','Tuna-100107011','Tuna-100107011 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A78" s="12">
         <f>+A77</f>
         <v>10</v>
       </c>
       <c r="B78" s="8" t="str">
         <f>+VLOOKUP(A78,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C78" s="12">
         <f>+C77</f>
@@ -7662,7 +7668,7 @@
         <v>12</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J78" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7681,14 +7687,14 @@
         <v>INSERT INTO categoria VALUES (100107012,'Otros frutos','Otros frutos-100107012','Otros frutos-100107012 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A79" s="12">
         <f>+A77</f>
         <v>10</v>
       </c>
       <c r="B79" s="8" t="str">
         <f>+VLOOKUP(A79,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C79" s="12">
         <f>+C77</f>
@@ -7714,7 +7720,7 @@
         <v>13</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J79" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7733,14 +7739,14 @@
         <v>INSERT INTO categoria VALUES (100107013,'Plumcots','Plumcots-100107013','Plumcots-100107013 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A80" s="12">
         <f>+A79</f>
         <v>10</v>
       </c>
       <c r="B80" s="8" t="str">
         <f>+VLOOKUP(A80,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C80" s="12">
         <f>+C79</f>
@@ -7766,7 +7772,7 @@
         <v>14</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J80" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7785,14 +7791,14 @@
         <v>INSERT INTO categoria VALUES (100107014,'Ruibarbo','Ruibarbo-100107014','Ruibarbo-100107014 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A81" s="12">
         <f>+A80</f>
         <v>10</v>
       </c>
       <c r="B81" s="8" t="str">
         <f>+VLOOKUP(A81,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C81" s="12">
         <f>+C80</f>
@@ -7818,7 +7824,7 @@
         <v>15</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7837,14 +7843,14 @@
         <v>INSERT INTO categoria VALUES (100107015,'Otros','Otros-100107015','Otros-100107015 | Prod: Perennes-100107 | Sector: Agr-1001 | Industria: AGR - 10',100107);</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A82" s="12">
         <f>+A77</f>
         <v>10</v>
       </c>
       <c r="B82" s="8" t="str">
         <f>+VLOOKUP(A82,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C82" s="12">
         <f>+C77</f>
@@ -7870,7 +7876,7 @@
         <v>1</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J82" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7889,14 +7895,14 @@
         <v>INSERT INTO categoria VALUES (100108001,'Guayaba','Guayaba-100108001','Guayaba-100108001 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A83" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B83" s="8" t="str">
         <f>+VLOOKUP(A83,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C83" s="12">
         <f t="shared" si="4"/>
@@ -7922,7 +7928,7 @@
         <v>2</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J83" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7941,14 +7947,14 @@
         <v>INSERT INTO categoria VALUES (100108002,'Mango','Mango-100108002','Mango-100108002 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A84" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B84" s="8" t="str">
         <f>+VLOOKUP(A84,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C84" s="12">
         <f t="shared" si="4"/>
@@ -7974,7 +7980,7 @@
         <v>3</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J84" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -7993,14 +7999,14 @@
         <v>INSERT INTO categoria VALUES (100108003,'Maracuyá','Maracuyá-100108003','Maracuyá-100108003 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A85" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B85" s="8" t="str">
         <f>+VLOOKUP(A85,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C85" s="12">
         <f t="shared" si="4"/>
@@ -8026,7 +8032,7 @@
         <v>4</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J85" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8045,14 +8051,14 @@
         <v>INSERT INTO categoria VALUES (100108004,'Papaya','Papaya-100108004','Papaya-100108004 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A86" s="12">
         <f>+A85</f>
         <v>10</v>
       </c>
       <c r="B86" s="8" t="str">
         <f>+VLOOKUP(A86,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C86" s="12">
         <f>+C85</f>
@@ -8078,7 +8084,7 @@
         <v>5</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J86" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8097,14 +8103,14 @@
         <v>INSERT INTO categoria VALUES (100108005,'Piña','Piña-100108005','Piña-100108005 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A87" s="12">
         <f>+A85</f>
         <v>10</v>
       </c>
       <c r="B87" s="8" t="str">
         <f>+VLOOKUP(A87,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C87" s="12">
         <f>+C85</f>
@@ -8130,7 +8136,7 @@
         <v>6</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J87" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8149,14 +8155,14 @@
         <v>INSERT INTO categoria VALUES (100108006,'Plátano','Plátano-100108006','Plátano-100108006 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A88" s="12">
         <f>+A85</f>
         <v>10</v>
       </c>
       <c r="B88" s="8" t="str">
         <f>+VLOOKUP(A88,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C88" s="12">
         <f>+C85</f>
@@ -8182,7 +8188,7 @@
         <v>7</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J88" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8201,14 +8207,14 @@
         <v>INSERT INTO categoria VALUES (100108007,'Coco','Coco-100108007','Coco-100108007 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A89" s="12">
         <f>+A88</f>
         <v>10</v>
       </c>
       <c r="B89" s="8" t="str">
         <f>+VLOOKUP(A89,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C89" s="12">
         <f>+C88</f>
@@ -8234,7 +8240,7 @@
         <v>8</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J89" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8253,14 +8259,14 @@
         <v>INSERT INTO categoria VALUES (100108008,'Frutas tropicales y subtropicales','Frutas tropicales y subtropicales-100108008','Frutas tropicales y subtropicales-100108008 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A90" s="12">
         <f>+A88</f>
         <v>10</v>
       </c>
       <c r="B90" s="8" t="str">
         <f>+VLOOKUP(A90,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C90" s="12">
         <f>+C88</f>
@@ -8286,7 +8292,7 @@
         <v>9</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J90" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8305,14 +8311,14 @@
         <v>INSERT INTO categoria VALUES (100108009,'Otras frutas tropicales y subtropicales','Otras frutas tropicales y subtropicales-100108009','Otras frutas tropicales y subtropicales-100108009 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A91" s="12">
         <f>+A88</f>
         <v>10</v>
       </c>
       <c r="B91" s="8" t="str">
         <f>+VLOOKUP(A91,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C91" s="12">
         <f>+C88</f>
@@ -8338,7 +8344,7 @@
         <v>10</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J91" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8357,14 +8363,14 @@
         <v>INSERT INTO categoria VALUES (100108010,'Babaco','Babaco-100108010','Babaco-100108010 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A92" s="12">
         <f>+A88</f>
         <v>10</v>
       </c>
       <c r="B92" s="8" t="str">
         <f>+VLOOKUP(A92,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C92" s="12">
         <f>+C88</f>
@@ -8390,7 +8396,7 @@
         <v>11</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J92" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8409,14 +8415,14 @@
         <v>INSERT INTO categoria VALUES (100108011,'Tumbo','Tumbo-100108011','Tumbo-100108011 | Prod: Perennes-100108 | Sector: Agr-1001 | Industria: AGR - 10',100108);</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A93" s="12">
         <f>+A85</f>
         <v>10</v>
       </c>
       <c r="B93" s="8" t="str">
         <f>+VLOOKUP(A93,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C93" s="12">
         <f>+C85</f>
@@ -8442,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J93" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8461,14 +8467,14 @@
         <v>INSERT INTO categoria VALUES (100109001,'Uva','Uva-100109001','Uva-100109001 | Prod: Perennes-100109 | Sector: Agr-1001 | Industria: AGR - 10',100109);</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A94" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B94" s="8" t="str">
         <f>+VLOOKUP(A94,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C94" s="12">
         <f t="shared" si="4"/>
@@ -8494,7 +8500,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J94" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8513,14 +8519,14 @@
         <v>INSERT INTO categoria VALUES (100110001,'Maní','Maní-100110001','Maní-100110001 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A95" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B95" s="8" t="str">
         <f>+VLOOKUP(A95,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C95" s="12">
         <f t="shared" si="4"/>
@@ -8546,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J95" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8565,14 +8571,14 @@
         <v>INSERT INTO categoria VALUES (100110002,'Porotos','Porotos-100110002','Porotos-100110002 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A96" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B96" s="8" t="str">
         <f>+VLOOKUP(A96,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C96" s="12">
         <f t="shared" si="4"/>
@@ -8598,7 +8604,7 @@
         <v>3</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J96" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8617,14 +8623,14 @@
         <v>INSERT INTO categoria VALUES (100110003,'Lentejas','Lentejas-100110003','Lentejas-100110003 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A97" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B97" s="8" t="str">
         <f>+VLOOKUP(A97,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C97" s="12">
         <f t="shared" si="4"/>
@@ -8650,7 +8656,7 @@
         <v>4</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J97" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8669,14 +8675,14 @@
         <v>INSERT INTO categoria VALUES (100110004,'Soya','Soya-100110004','Soya-100110004 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A98" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B98" s="8" t="str">
         <f>+VLOOKUP(A98,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C98" s="12">
         <f t="shared" si="4"/>
@@ -8702,7 +8708,7 @@
         <v>5</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J98" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8721,14 +8727,14 @@
         <v>INSERT INTO categoria VALUES (100110005,'Garbanzos','Garbanzos-100110005','Garbanzos-100110005 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A99" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B99" s="8" t="str">
         <f>+VLOOKUP(A99,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C99" s="12">
         <f t="shared" si="4"/>
@@ -8754,7 +8760,7 @@
         <v>6</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J99" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8773,14 +8779,14 @@
         <v>INSERT INTO categoria VALUES (100110006,'Arvejas','Arvejas-100110006','Arvejas-100110006 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A100" s="12">
         <f>+A99</f>
         <v>10</v>
       </c>
       <c r="B100" s="8" t="str">
         <f>+VLOOKUP(A100,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C100" s="12">
         <f>+C99</f>
@@ -8806,7 +8812,7 @@
         <v>7</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J100" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8825,14 +8831,14 @@
         <v>INSERT INTO categoria VALUES (100110007,'Otras Legumbres','Otras Legumbres-100110007','Otras Legumbres-100110007 | Prod: Anuales-100110 | Sector: Agr-1001 | Industria: AGR - 10',100110);</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A101" s="12">
         <f>+A99</f>
         <v>10</v>
       </c>
       <c r="B101" s="8" t="str">
         <f>+VLOOKUP(A101,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C101" s="12">
         <f>+C99</f>
@@ -8858,7 +8864,7 @@
         <v>1</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J101" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8877,14 +8883,14 @@
         <v>INSERT INTO categoria VALUES (100111001,'Arroz','Arroz-100111001','Arroz-100111001 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A102" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B102" s="8" t="str">
         <f>+VLOOKUP(A102,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C102" s="12">
         <f t="shared" si="4"/>
@@ -8910,7 +8916,7 @@
         <v>2</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J102" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8929,14 +8935,14 @@
         <v>INSERT INTO categoria VALUES (100111002,'Trigo','Trigo-100111002','Trigo-100111002 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A103" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B103" s="8" t="str">
         <f>+VLOOKUP(A103,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C103" s="12">
         <f t="shared" si="4"/>
@@ -8962,7 +8968,7 @@
         <v>3</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J103" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -8981,14 +8987,14 @@
         <v>INSERT INTO categoria VALUES (100111003,'Maíz','Maíz-100111003','Maíz-100111003 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A104" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B104" s="8" t="str">
         <f>+VLOOKUP(A104,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C104" s="12">
         <f t="shared" si="4"/>
@@ -9014,7 +9020,7 @@
         <v>4</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J104" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9033,14 +9039,14 @@
         <v>INSERT INTO categoria VALUES (100111004,'Cebada','Cebada-100111004','Cebada-100111004 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A105" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B105" s="8" t="str">
         <f>+VLOOKUP(A105,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C105" s="12">
         <f t="shared" si="4"/>
@@ -9066,7 +9072,7 @@
         <v>5</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J105" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9085,14 +9091,14 @@
         <v>INSERT INTO categoria VALUES (100111005,'Avena','Avena-100111005','Avena-100111005 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A106" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B106" s="8" t="str">
         <f>+VLOOKUP(A106,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C106" s="12">
         <f t="shared" si="4"/>
@@ -9118,7 +9124,7 @@
         <v>6</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J106" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9137,14 +9143,14 @@
         <v>INSERT INTO categoria VALUES (100111006,'Centeno','Centeno-100111006','Centeno-100111006 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A107" s="12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B107" s="8" t="str">
         <f>+VLOOKUP(A107,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C107" s="12">
         <f t="shared" si="4"/>
@@ -9170,7 +9176,7 @@
         <v>7</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J107" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9189,14 +9195,14 @@
         <v>INSERT INTO categoria VALUES (100111007,'Mote','Mote-100111007','Mote-100111007 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A108" s="12">
         <f t="shared" ref="A108:A194" si="19">+A107</f>
         <v>10</v>
       </c>
       <c r="B108" s="8" t="str">
         <f>+VLOOKUP(A108,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C108" s="12">
         <f t="shared" ref="C108:C194" si="20">+C107</f>
@@ -9222,7 +9228,7 @@
         <v>8</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J108" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9241,14 +9247,14 @@
         <v>INSERT INTO categoria VALUES (100111008,'Quinoa','Quinoa-100111008','Quinoa-100111008 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A109" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B109" s="8" t="str">
         <f>+VLOOKUP(A109,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C109" s="12">
         <f t="shared" si="20"/>
@@ -9274,7 +9280,7 @@
         <v>9</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J109" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9293,14 +9299,14 @@
         <v>INSERT INTO categoria VALUES (100111009,'Amaranto','Amaranto-100111009','Amaranto-100111009 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A110" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B110" s="8" t="str">
         <f>+VLOOKUP(A110,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C110" s="12">
         <f t="shared" si="20"/>
@@ -9326,7 +9332,7 @@
         <v>10</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J110" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9345,14 +9351,14 @@
         <v>INSERT INTO categoria VALUES (100111010,'Mijo','Mijo-100111010','Mijo-100111010 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A111" s="12">
         <f>+A110</f>
         <v>10</v>
       </c>
       <c r="B111" s="8" t="str">
         <f>+VLOOKUP(A111,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C111" s="12">
         <f>+C110</f>
@@ -9378,7 +9384,7 @@
         <v>11</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J111" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9397,14 +9403,14 @@
         <v>INSERT INTO categoria VALUES (100111011,'Otros cereales','Otros cereales-100111011','Otros cereales-100111011 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A112" s="12">
         <f>+A110</f>
         <v>10</v>
       </c>
       <c r="B112" s="8" t="str">
         <f>+VLOOKUP(A112,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C112" s="12">
         <f>+C110</f>
@@ -9430,7 +9436,7 @@
         <v>12</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J112" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9449,14 +9455,14 @@
         <v>INSERT INTO categoria VALUES (100111012,'Triticale','Triticale-100111012','Triticale-100111012 | Prod: Anuales-100111 | Sector: Agr-1001 | Industria: AGR - 10',100111);</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A113" s="12">
         <f>+A110</f>
         <v>10</v>
       </c>
       <c r="B113" s="8" t="str">
         <f>+VLOOKUP(A113,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C113" s="12">
         <f>+C110</f>
@@ -9482,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J113" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9501,14 +9507,14 @@
         <v>INSERT INTO categoria VALUES (100112001,'Berenjena','Berenjena-100112001','Berenjena-100112001 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A114" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B114" s="8" t="str">
         <f>+VLOOKUP(A114,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C114" s="12">
         <f t="shared" si="20"/>
@@ -9534,7 +9540,7 @@
         <v>2</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J114" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9553,14 +9559,14 @@
         <v>INSERT INTO categoria VALUES (100112002,'Pimiento','Pimiento-100112002','Pimiento-100112002 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A115" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B115" s="8" t="str">
         <f>+VLOOKUP(A115,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C115" s="12">
         <f t="shared" si="20"/>
@@ -9586,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="I115" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J115" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9605,14 +9611,14 @@
         <v>INSERT INTO categoria VALUES (100112003,'Ajo','Ajo-100112003','Ajo-100112003 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A116" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B116" s="8" t="str">
         <f>+VLOOKUP(A116,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C116" s="12">
         <f t="shared" si="20"/>
@@ -9638,7 +9644,7 @@
         <v>4</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J116" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9657,14 +9663,14 @@
         <v>INSERT INTO categoria VALUES (100112004,'Cebolla','Cebolla-100112004','Cebolla-100112004 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A117" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B117" s="8" t="str">
         <f>+VLOOKUP(A117,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C117" s="12">
         <f t="shared" si="20"/>
@@ -9690,7 +9696,7 @@
         <v>5</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J117" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9709,14 +9715,14 @@
         <v>INSERT INTO categoria VALUES (100112005,'Puerro','Puerro-100112005','Puerro-100112005 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A118" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B118" s="8" t="str">
         <f>+VLOOKUP(A118,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C118" s="12">
         <f t="shared" si="20"/>
@@ -9742,7 +9748,7 @@
         <v>6</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J118" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9761,14 +9767,14 @@
         <v>INSERT INTO categoria VALUES (100112006,'Repollo','Repollo-100112006','Repollo-100112006 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A119" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B119" s="8" t="str">
         <f>+VLOOKUP(A119,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C119" s="12">
         <f t="shared" si="20"/>
@@ -9794,7 +9800,7 @@
         <v>7</v>
       </c>
       <c r="I119" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J119" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9813,14 +9819,14 @@
         <v>INSERT INTO categoria VALUES (100112007,'Coles de Bruselas','Coles de Bruselas-100112007','Coles de Bruselas-100112007 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A120" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B120" s="8" t="str">
         <f>+VLOOKUP(A120,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C120" s="12">
         <f t="shared" si="20"/>
@@ -9846,7 +9852,7 @@
         <v>8</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J120" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9865,14 +9871,14 @@
         <v>INSERT INTO categoria VALUES (100112008,'Coliflor','Coliflor-100112008','Coliflor-100112008 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A121" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B121" s="8" t="str">
         <f>+VLOOKUP(A121,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C121" s="12">
         <f t="shared" si="20"/>
@@ -9898,7 +9904,7 @@
         <v>9</v>
       </c>
       <c r="I121" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J121" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9917,14 +9923,14 @@
         <v>INSERT INTO categoria VALUES (100112009,'Acelga','Acelga-100112009','Acelga-100112009 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A122" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B122" s="8" t="str">
         <f>+VLOOKUP(A122,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C122" s="12">
         <f t="shared" si="20"/>
@@ -9950,7 +9956,7 @@
         <v>10</v>
       </c>
       <c r="I122" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J122" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -9969,14 +9975,14 @@
         <v>INSERT INTO categoria VALUES (100112010,'Achicoria','Achicoria-100112010','Achicoria-100112010 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A123" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B123" s="8" t="str">
         <f>+VLOOKUP(A123,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C123" s="12">
         <f t="shared" si="20"/>
@@ -10002,7 +10008,7 @@
         <v>11</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J123" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10021,14 +10027,14 @@
         <v>INSERT INTO categoria VALUES (100112011,'Escarola','Escarola-100112011','Escarola-100112011 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A124" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B124" s="8" t="str">
         <f>+VLOOKUP(A124,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C124" s="12">
         <f t="shared" si="20"/>
@@ -10054,7 +10060,7 @@
         <v>12</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J124" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10073,14 +10079,14 @@
         <v>INSERT INTO categoria VALUES (100112012,'Espinaca','Espinaca-100112012','Espinaca-100112012 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A125" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B125" s="8" t="str">
         <f>+VLOOKUP(A125,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C125" s="12">
         <f t="shared" si="20"/>
@@ -10106,7 +10112,7 @@
         <v>13</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J125" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10125,14 +10131,14 @@
         <v>INSERT INTO categoria VALUES (100112013,'Alcachofa','Alcachofa-100112013','Alcachofa-100112013 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A126" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B126" s="8" t="str">
         <f>+VLOOKUP(A126,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C126" s="12">
         <f t="shared" si="20"/>
@@ -10158,7 +10164,7 @@
         <v>14</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J126" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10177,14 +10183,14 @@
         <v>INSERT INTO categoria VALUES (100112014,'Calabacín','Calabacín-100112014','Calabacín-100112014 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A127" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B127" s="8" t="str">
         <f>+VLOOKUP(A127,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C127" s="12">
         <f t="shared" si="20"/>
@@ -10210,7 +10216,7 @@
         <v>15</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J127" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10229,14 +10235,14 @@
         <v>INSERT INTO categoria VALUES (100112015,'Calabaza','Calabaza-100112015','Calabaza-100112015 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A128" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B128" s="8" t="str">
         <f>+VLOOKUP(A128,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C128" s="12">
         <f t="shared" si="20"/>
@@ -10262,7 +10268,7 @@
         <v>16</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J128" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10281,14 +10287,14 @@
         <v>INSERT INTO categoria VALUES (100112016,'Pepino','Pepino-100112016','Pepino-100112016 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A129" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B129" s="8" t="str">
         <f>+VLOOKUP(A129,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C129" s="12">
         <f t="shared" si="20"/>
@@ -10314,7 +10320,7 @@
         <v>17</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J129" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10333,14 +10339,14 @@
         <v>INSERT INTO categoria VALUES (100112017,'Apio','Apio-100112017','Apio-100112017 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A130" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B130" s="8" t="str">
         <f>+VLOOKUP(A130,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C130" s="12">
         <f t="shared" si="20"/>
@@ -10366,7 +10372,7 @@
         <v>18</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J130" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10385,14 +10391,14 @@
         <v>INSERT INTO categoria VALUES (100112018,'Espárrago','Espárrago-100112018','Espárrago-100112018 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A131" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B131" s="8" t="str">
         <f>+VLOOKUP(A131,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C131" s="12">
         <f t="shared" si="20"/>
@@ -10418,7 +10424,7 @@
         <v>19</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J131" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10437,14 +10443,14 @@
         <v>INSERT INTO categoria VALUES (100112019,'Kale','Kale-100112019','Kale-100112019 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A132" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B132" s="8" t="str">
         <f>+VLOOKUP(A132,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C132" s="12">
         <f t="shared" si="20"/>
@@ -10470,7 +10476,7 @@
         <v>20</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J132" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10489,14 +10495,14 @@
         <v>INSERT INTO categoria VALUES (100112020,'Tomate','Tomate-100112020','Tomate-100112020 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A133" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B133" s="8" t="str">
         <f>+VLOOKUP(A133,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C133" s="12">
         <f t="shared" si="20"/>
@@ -10522,7 +10528,7 @@
         <v>21</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J133" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10541,14 +10547,14 @@
         <v>INSERT INTO categoria VALUES (100112021,'Ají','Ají-100112021','Ají-100112021 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A134" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B134" s="8" t="str">
         <f>+VLOOKUP(A134,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C134" s="12">
         <f t="shared" si="20"/>
@@ -10574,7 +10580,7 @@
         <v>22</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J134" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10593,14 +10599,14 @@
         <v>INSERT INTO categoria VALUES (100112022,'Arveja Verde','Arveja Verde-100112022','Arveja Verde-100112022 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A135" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B135" s="8" t="str">
         <f>+VLOOKUP(A135,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C135" s="12">
         <f t="shared" si="20"/>
@@ -10626,7 +10632,7 @@
         <v>23</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J135" s="8" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10645,14 +10651,14 @@
         <v>INSERT INTO categoria VALUES (100112023,'Brócoli','Brócoli-100112023','Brócoli-100112023 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A136" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B136" s="8" t="str">
         <f>+VLOOKUP(A136,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C136" s="12">
         <f t="shared" si="20"/>
@@ -10678,7 +10684,7 @@
         <v>24</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J136" s="10" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10697,14 +10703,14 @@
         <v>INSERT INTO categoria VALUES (100112024,'Choclo','Choclo-100112024','Choclo-100112024 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A137" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B137" s="8" t="str">
         <f>+VLOOKUP(A137,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C137" s="12">
         <f t="shared" si="20"/>
@@ -10726,11 +10732,11 @@
         <f t="shared" si="17"/>
         <v>100112025</v>
       </c>
-      <c r="H137" s="7">
+      <c r="H137" s="41">
         <v>25</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J137" s="10" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10749,14 +10755,14 @@
         <v>INSERT INTO categoria VALUES (100112025,'Frutilla','Frutilla-100112025','Frutilla-100112025 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A138" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B138" s="8" t="str">
         <f>+VLOOKUP(A138,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C138" s="12">
         <f t="shared" si="20"/>
@@ -10782,7 +10788,7 @@
         <v>26</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J138" s="10" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10801,14 +10807,14 @@
         <v>INSERT INTO categoria VALUES (100112026,'Habas','Habas-100112026','Habas-100112026 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A139" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B139" s="8" t="str">
         <f>+VLOOKUP(A139,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C139" s="12">
         <f t="shared" si="20"/>
@@ -10830,13 +10836,13 @@
         <f t="shared" si="17"/>
         <v>100112027</v>
       </c>
-      <c r="H139" s="7">
+      <c r="H139" s="41">
         <v>27</v>
       </c>
-      <c r="I139" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="J139" s="11" t="str">
+      <c r="I139" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J139" s="10" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
         <v>Melón-100112027</v>
       </c>
@@ -10853,14 +10859,14 @@
         <v>INSERT INTO categoria VALUES (100112027,'Melón','Melón-100112027','Melón-100112027 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A140" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B140" s="8" t="str">
         <f>+VLOOKUP(A140,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C140" s="12">
         <f t="shared" si="20"/>
@@ -10882,13 +10888,13 @@
         <f t="shared" si="17"/>
         <v>100112028</v>
       </c>
-      <c r="H140" s="7">
+      <c r="H140" s="41">
         <v>28</v>
       </c>
-      <c r="I140" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J140" s="11" t="str">
+      <c r="I140" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="J140" s="10" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
         <v>Sandía-100112028</v>
       </c>
@@ -10905,14 +10911,14 @@
         <v>INSERT INTO categoria VALUES (100112028,'Sandía','Sandía-100112028','Sandía-100112028 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A141" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B141" s="8" t="str">
         <f>+VLOOKUP(A141,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C141" s="12">
         <f t="shared" si="20"/>
@@ -10938,7 +10944,7 @@
         <v>29</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J141" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -10957,14 +10963,14 @@
         <v>INSERT INTO categoria VALUES (100112029,'Orégano','Orégano-100112029','Orégano-100112029 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A142" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B142" s="8" t="str">
         <f>+VLOOKUP(A142,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C142" s="12">
         <f t="shared" si="20"/>
@@ -10990,7 +10996,7 @@
         <v>30</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J142" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11009,14 +11015,14 @@
         <v>INSERT INTO categoria VALUES (100112030,'Poroto granado','Poroto granado-100112030','Poroto granado-100112030 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A143" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B143" s="8" t="str">
         <f>+VLOOKUP(A143,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C143" s="12">
         <f t="shared" si="20"/>
@@ -11042,7 +11048,7 @@
         <v>31</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J143" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11061,14 +11067,14 @@
         <v>INSERT INTO categoria VALUES (100112031,'Poroto verde','Poroto verde-100112031','Poroto verde-100112031 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A144" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B144" s="8" t="str">
         <f>+VLOOKUP(A144,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C144" s="12">
         <f t="shared" si="20"/>
@@ -11094,7 +11100,7 @@
         <v>32</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J144" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11113,14 +11119,14 @@
         <v>INSERT INTO categoria VALUES (100112032,'Zapallo italiano','Zapallo italiano-100112032','Zapallo italiano-100112032 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A145" s="12">
         <f>+A144</f>
         <v>10</v>
       </c>
       <c r="B145" s="8" t="str">
         <f>+VLOOKUP(A145,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C145" s="12">
         <f>+C144</f>
@@ -11146,7 +11152,7 @@
         <v>33</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J145" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11165,14 +11171,14 @@
         <v>INSERT INTO categoria VALUES (100112033,'Lechuga','Lechuga-100112033','Lechuga-100112033 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A146" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B146" s="8" t="str">
         <f>+VLOOKUP(A146,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C146" s="12">
         <f>+C145</f>
@@ -11198,7 +11204,7 @@
         <v>34</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J146" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11217,14 +11223,14 @@
         <v>INSERT INTO categoria VALUES (100112034,'Albahaca','Albahaca-100112034','Albahaca-100112034 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A147" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B147" s="8" t="str">
         <f>+VLOOKUP(A147,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C147" s="12">
         <f>+C145</f>
@@ -11250,7 +11256,7 @@
         <v>35</v>
       </c>
       <c r="I147" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J147" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11269,14 +11275,14 @@
         <v>INSERT INTO categoria VALUES (100112035,'Bruselas (repollito)','Bruselas (repollito)-100112035','Bruselas (repollito)-100112035 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A148" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B148" s="8" t="str">
         <f>+VLOOKUP(A148,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C148" s="12">
         <f>+C145</f>
@@ -11302,7 +11308,7 @@
         <v>36</v>
       </c>
       <c r="I148" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J148" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11321,14 +11327,14 @@
         <v>INSERT INTO categoria VALUES (100112036,'Caigua','Caigua-100112036','Caigua-100112036 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A149" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B149" s="8" t="str">
         <f>+VLOOKUP(A149,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C149" s="12">
         <f>+C145</f>
@@ -11354,7 +11360,7 @@
         <v>37</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J149" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11373,14 +11379,14 @@
         <v>INSERT INTO categoria VALUES (100112037,'Cebollín','Cebollín-100112037','Cebollín-100112037 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A150" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B150" s="8" t="str">
         <f>+VLOOKUP(A150,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C150" s="12">
         <f>+C145</f>
@@ -11406,7 +11412,7 @@
         <v>38</v>
       </c>
       <c r="I150" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J150" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11425,14 +11431,14 @@
         <v>INSERT INTO categoria VALUES (100112038,'Cebollín baby','Cebollín baby-100112038','Cebollín baby-100112038 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A151" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B151" s="8" t="str">
         <f>+VLOOKUP(A151,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C151" s="12">
         <f>+C145</f>
@@ -11458,7 +11464,7 @@
         <v>39</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J151" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11477,14 +11483,14 @@
         <v>INSERT INTO categoria VALUES (100112039,'Ciboulette','Ciboulette-100112039','Ciboulette-100112039 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A152" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B152" s="8" t="str">
         <f>+VLOOKUP(A152,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C152" s="12">
         <f>+C145</f>
@@ -11510,7 +11516,7 @@
         <v>40</v>
       </c>
       <c r="I152" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J152" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11529,14 +11535,14 @@
         <v>INSERT INTO categoria VALUES (100112040,'Cilantro','Cilantro-100112040','Cilantro-100112040 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A153" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B153" s="8" t="str">
         <f>+VLOOKUP(A153,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C153" s="12">
         <f>+C145</f>
@@ -11558,13 +11564,13 @@
         <f t="shared" si="22"/>
         <v>100112041</v>
       </c>
-      <c r="H153" s="7">
+      <c r="H153" s="41">
         <v>41</v>
       </c>
-      <c r="I153" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="J153" s="36" t="str">
+      <c r="I153" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J153" s="42" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
         <v>Fruto del paraíso-100112041</v>
       </c>
@@ -11581,14 +11587,14 @@
         <v>INSERT INTO categoria VALUES (100112041,'Fruto del paraíso','Fruto del paraíso-100112041','Fruto del paraíso-100112041 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A154" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B154" s="8" t="str">
         <f>+VLOOKUP(A154,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C154" s="12">
         <f>+C145</f>
@@ -11614,7 +11620,7 @@
         <v>42</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J154" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11633,14 +11639,14 @@
         <v>INSERT INTO categoria VALUES (100112042,'Locoto','Locoto-100112042','Locoto-100112042 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A155" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B155" s="8" t="str">
         <f>+VLOOKUP(A155,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C155" s="12">
         <f>+C145</f>
@@ -11662,13 +11668,13 @@
         <f t="shared" si="22"/>
         <v>100112043</v>
       </c>
-      <c r="H155" s="7">
+      <c r="H155" s="41">
         <v>43</v>
       </c>
-      <c r="I155" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="J155" s="36" t="str">
+      <c r="I155" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J155" s="42" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
         <v>Pepino dulce-100112043</v>
       </c>
@@ -11685,14 +11691,14 @@
         <v>INSERT INTO categoria VALUES (100112043,'Pepino dulce','Pepino dulce-100112043','Pepino dulce-100112043 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A156" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B156" s="8" t="str">
         <f>+VLOOKUP(A156,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C156" s="12">
         <f>+C145</f>
@@ -11718,7 +11724,7 @@
         <v>44</v>
       </c>
       <c r="I156" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J156" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11737,14 +11743,14 @@
         <v>INSERT INTO categoria VALUES (100112044,'Perejil','Perejil-100112044','Perejil-100112044 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A157" s="12">
         <f>+A145</f>
         <v>10</v>
       </c>
       <c r="B157" s="8" t="str">
         <f>+VLOOKUP(A157,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C157" s="12">
         <f>+C145</f>
@@ -11770,7 +11776,7 @@
         <v>45</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J157" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11789,14 +11795,14 @@
         <v>INSERT INTO categoria VALUES (100112045,'Zapallo','Zapallo-100112045','Zapallo-100112045 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A158" s="12">
         <f>+A157</f>
         <v>10</v>
       </c>
       <c r="B158" s="8" t="str">
         <f>+VLOOKUP(A158,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C158" s="12">
         <f>+C157</f>
@@ -11822,7 +11828,7 @@
         <v>46</v>
       </c>
       <c r="I158" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J158" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11841,14 +11847,14 @@
         <v>INSERT INTO categoria VALUES (100112046,'Hortalizas','Hortalizas-100112046','Hortalizas-100112046 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A159" s="12">
         <f>+A157</f>
         <v>10</v>
       </c>
       <c r="B159" s="8" t="str">
         <f>+VLOOKUP(A159,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C159" s="12">
         <f>+C157</f>
@@ -11874,7 +11880,7 @@
         <v>47</v>
       </c>
       <c r="I159" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J159" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11893,14 +11899,14 @@
         <v>INSERT INTO categoria VALUES (100112047,'Hakusai','Hakusai-100112047','Hakusai-100112047 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A160" s="12">
         <f>+A157</f>
         <v>10</v>
       </c>
       <c r="B160" s="8" t="str">
         <f>+VLOOKUP(A160,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C160" s="12">
         <f>+C157</f>
@@ -11926,7 +11932,7 @@
         <v>48</v>
       </c>
       <c r="I160" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J160" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11945,14 +11951,14 @@
         <v>INSERT INTO categoria VALUES (100112048,'Petit Vert','Petit Vert-100112048','Petit Vert-100112048 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A161" s="12">
         <f>+A157</f>
         <v>10</v>
       </c>
       <c r="B161" s="8" t="str">
         <f>+VLOOKUP(A161,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C161" s="12">
         <f>+C157</f>
@@ -11978,7 +11984,7 @@
         <v>49</v>
       </c>
       <c r="I161" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J161" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -11997,14 +12003,14 @@
         <v>INSERT INTO categoria VALUES (100112049,'Champiñón','Champiñón-100112049','Champiñón-100112049 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A162" s="12">
         <f>+A157</f>
         <v>10</v>
       </c>
       <c r="B162" s="8" t="str">
         <f>+VLOOKUP(A162,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C162" s="12">
         <f>+C157</f>
@@ -12030,7 +12036,7 @@
         <v>50</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J162" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12049,14 +12055,14 @@
         <v>INSERT INTO categoria VALUES (100112050,'Hongo','Hongo-100112050','Hongo-100112050 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A163" s="12">
         <f>+A157</f>
         <v>10</v>
       </c>
       <c r="B163" s="8" t="str">
         <f>+VLOOKUP(A163,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C163" s="12">
         <f>+C157</f>
@@ -12082,7 +12088,7 @@
         <v>51</v>
       </c>
       <c r="I163" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J163" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12101,14 +12107,14 @@
         <v>INSERT INTO categoria VALUES (100112051,'Berro','Berro-100112051','Berro-100112051 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A164" s="12">
         <f>+A157</f>
         <v>10</v>
       </c>
       <c r="B164" s="8" t="str">
         <f>+VLOOKUP(A164,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C164" s="12">
         <f>+C157</f>
@@ -12134,7 +12140,7 @@
         <v>52</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J164" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12153,14 +12159,14 @@
         <v>INSERT INTO categoria VALUES (100112052,'Albahaca','Albahaca-100112052','Albahaca-100112052 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A165" s="12">
         <f>+A157</f>
         <v>10</v>
       </c>
       <c r="B165" s="8" t="str">
         <f>+VLOOKUP(A165,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C165" s="12">
         <f>+C157</f>
@@ -12182,13 +12188,13 @@
         <f t="shared" si="25"/>
         <v>100112053</v>
       </c>
-      <c r="H165" s="7">
+      <c r="H165" s="41">
         <v>53</v>
       </c>
-      <c r="I165" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J165" s="36" t="str">
+      <c r="I165" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J165" s="42" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
         <v>Alcayota-100112053</v>
       </c>
@@ -12205,14 +12211,14 @@
         <v>INSERT INTO categoria VALUES (100112053,'Alcayota','Alcayota-100112053','Alcayota-100112053 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A166" s="12">
         <f>+A165</f>
         <v>10</v>
       </c>
       <c r="B166" s="8" t="str">
         <f>+VLOOKUP(A166,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C166" s="12">
         <f>+C165</f>
@@ -12238,7 +12244,7 @@
         <v>54</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J166" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12257,14 +12263,14 @@
         <v>INSERT INTO categoria VALUES (100112054,'Otras Hortalizas','Otras Hortalizas-100112054','Otras Hortalizas-100112054 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A167" s="12">
         <f>+A166</f>
         <v>10</v>
       </c>
       <c r="B167" s="8" t="str">
         <f>+VLOOKUP(A167,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C167" s="12">
         <f>+C166</f>
@@ -12290,7 +12296,7 @@
         <v>55</v>
       </c>
       <c r="I167" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J167" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12309,14 +12315,14 @@
         <v>INSERT INTO categoria VALUES (100112055,'Hongo Silvestre','Hongo Silvestre-100112055','Hongo Silvestre-100112055 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A168" s="12">
         <f>+A166</f>
         <v>10</v>
       </c>
       <c r="B168" s="8" t="str">
         <f>+VLOOKUP(A168,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C168" s="12">
         <f>+C166</f>
@@ -12338,13 +12344,13 @@
         <f>+E168*1000+H168</f>
         <v>100112056</v>
       </c>
-      <c r="H168" s="7">
+      <c r="H168" s="41">
         <v>56</v>
       </c>
-      <c r="I168" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="J168" s="36" t="str">
+      <c r="I168" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="J168" s="42" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
         <v>Melón Calameño-100112056</v>
       </c>
@@ -12361,14 +12367,14 @@
         <v>INSERT INTO categoria VALUES (100112056,'Melón Calameño','Melón Calameño-100112056','Melón Calameño-100112056 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A169" s="12">
         <f>+A166</f>
         <v>10</v>
       </c>
       <c r="B169" s="8" t="str">
         <f>+VLOOKUP(A169,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C169" s="12">
         <f>+C166</f>
@@ -12390,13 +12396,13 @@
         <f>+E169*1000+H169</f>
         <v>100112057</v>
       </c>
-      <c r="H169" s="7">
+      <c r="H169" s="41">
         <v>57</v>
       </c>
-      <c r="I169" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="J169" s="36" t="str">
+      <c r="I169" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="J169" s="42" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
         <v>Melón Tuna-100112057</v>
       </c>
@@ -12413,14 +12419,14 @@
         <v>INSERT INTO categoria VALUES (100112057,'Melón Tuna','Melón Tuna-100112057','Melón Tuna-100112057 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A170" s="12">
         <f>+A166</f>
         <v>10</v>
       </c>
       <c r="B170" s="8" t="str">
         <f>+VLOOKUP(A170,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C170" s="12">
         <f>+C166</f>
@@ -12446,7 +12452,7 @@
         <v>58</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J170" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12465,14 +12471,14 @@
         <v>INSERT INTO categoria VALUES (100112058,'Zapallo Camote','Zapallo Camote-100112058','Zapallo Camote-100112058 | Prod: Anuales-100112 | Sector: Agr-1001 | Industria: AGR - 10',100112);</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A171" s="12">
         <f>+A144</f>
         <v>10</v>
       </c>
       <c r="B171" s="8" t="str">
         <f>+VLOOKUP(A171,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C171" s="12">
         <f>+C144</f>
@@ -12498,7 +12504,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J171" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12517,14 +12523,14 @@
         <v>INSERT INTO categoria VALUES (100113001,'Lupino','Lupino-100113001','Lupino-100113001 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A172" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B172" s="8" t="str">
         <f>+VLOOKUP(A172,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C172" s="12">
         <f t="shared" si="20"/>
@@ -12550,7 +12556,7 @@
         <v>2</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J172" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12569,14 +12575,14 @@
         <v>INSERT INTO categoria VALUES (100113002,'Maravilla','Maravilla-100113002','Maravilla-100113002 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A173" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B173" s="8" t="str">
         <f>+VLOOKUP(A173,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C173" s="12">
         <f t="shared" si="20"/>
@@ -12602,7 +12608,7 @@
         <v>3</v>
       </c>
       <c r="I173" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J173" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12621,14 +12627,14 @@
         <v>INSERT INTO categoria VALUES (100113003,'Raps','Raps-100113003','Raps-100113003 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A174" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B174" s="8" t="str">
         <f>+VLOOKUP(A174,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C174" s="12">
         <f t="shared" si="20"/>
@@ -12654,7 +12660,7 @@
         <v>4</v>
       </c>
       <c r="I174" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J174" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12673,14 +12679,14 @@
         <v>INSERT INTO categoria VALUES (100113004,'Remolacha (caña de azúcar)','Remolacha (caña de azúcar)-100113004','Remolacha (caña de azúcar)-100113004 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A175" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B175" s="8" t="str">
         <f>+VLOOKUP(A175,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C175" s="12">
         <f t="shared" si="20"/>
@@ -12706,7 +12712,7 @@
         <v>5</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J175" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12725,14 +12731,14 @@
         <v>INSERT INTO categoria VALUES (100113005,'Tabaco','Tabaco-100113005','Tabaco-100113005 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A176" s="12">
         <f>+A175</f>
         <v>10</v>
       </c>
       <c r="B176" s="8" t="str">
         <f>+VLOOKUP(A176,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C176" s="12">
         <f>+C175</f>
@@ -12758,7 +12764,7 @@
         <v>6</v>
       </c>
       <c r="I176" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J176" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12777,14 +12783,14 @@
         <v>INSERT INTO categoria VALUES (100113006,'Otras industriales','Otras industriales-100113006','Otras industriales-100113006 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A177" s="12">
         <f>+A175</f>
         <v>10</v>
       </c>
       <c r="B177" s="8" t="str">
         <f>+VLOOKUP(A177,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C177" s="12">
         <f>+C175</f>
@@ -12810,7 +12816,7 @@
         <v>7</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J177" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12829,14 +12835,14 @@
         <v>INSERT INTO categoria VALUES (100113007,'Sésamo','Sésamo-100113007','Sésamo-100113007 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A178" s="12">
         <f>+A175</f>
         <v>10</v>
       </c>
       <c r="B178" s="8" t="str">
         <f>+VLOOKUP(A178,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C178" s="12">
         <f>+C175</f>
@@ -12862,7 +12868,7 @@
         <v>8</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J178" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12881,14 +12887,14 @@
         <v>INSERT INTO categoria VALUES (100113008,'Chía','Chía-100113008','Chía-100113008 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A179" s="12">
         <f>+A175</f>
         <v>10</v>
       </c>
       <c r="B179" s="8" t="str">
         <f>+VLOOKUP(A179,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C179" s="12">
         <f>+C175</f>
@@ -12914,7 +12920,7 @@
         <v>9</v>
       </c>
       <c r="I179" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J179" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12933,14 +12939,14 @@
         <v>INSERT INTO categoria VALUES (100113009,'Linaza','Linaza-100113009','Linaza-100113009 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A180" s="12">
         <f>+A175</f>
         <v>10</v>
       </c>
       <c r="B180" s="8" t="str">
         <f>+VLOOKUP(A180,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C180" s="12">
         <f>+C175</f>
@@ -12966,7 +12972,7 @@
         <v>10</v>
       </c>
       <c r="I180" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J180" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -12985,14 +12991,14 @@
         <v>INSERT INTO categoria VALUES (100113010,'Pepa de Zapallo','Pepa de Zapallo-100113010','Pepa de Zapallo-100113010 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A181" s="12">
         <f>+A175</f>
         <v>10</v>
       </c>
       <c r="B181" s="8" t="str">
         <f>+VLOOKUP(A181,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C181" s="12">
         <f>+C175</f>
@@ -13018,7 +13024,7 @@
         <v>11</v>
       </c>
       <c r="I181" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J181" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13037,14 +13043,14 @@
         <v>INSERT INTO categoria VALUES (100113011,'Pepa de Uva','Pepa de Uva-100113011','Pepa de Uva-100113011 | Prod: Anuales-100113 | Sector: Agr-1001 | Industria: AGR - 10',100113);</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A182" s="12">
         <f>+A175</f>
         <v>10</v>
       </c>
       <c r="B182" s="8" t="str">
         <f>+VLOOKUP(A182,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C182" s="12">
         <f>+C175</f>
@@ -13070,7 +13076,7 @@
         <v>1</v>
       </c>
       <c r="I182" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J182" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13089,14 +13095,14 @@
         <v>INSERT INTO categoria VALUES (100114001,'Papa','Papa-100114001','Papa-100114001 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A183" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B183" s="8" t="str">
         <f>+VLOOKUP(A183,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C183" s="12">
         <f t="shared" si="20"/>
@@ -13122,7 +13128,7 @@
         <v>2</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J183" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13141,14 +13147,14 @@
         <v>INSERT INTO categoria VALUES (100114002,'Camote','Camote-100114002','Camote-100114002 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A184" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B184" s="8" t="str">
         <f>+VLOOKUP(A184,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C184" s="12">
         <f t="shared" si="20"/>
@@ -13174,7 +13180,7 @@
         <v>3</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J184" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13193,14 +13199,14 @@
         <v>INSERT INTO categoria VALUES (100114003,'Ñame','Ñame-100114003','Ñame-100114003 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A185" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B185" s="8" t="str">
         <f>+VLOOKUP(A185,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C185" s="12">
         <f t="shared" si="20"/>
@@ -13226,7 +13232,7 @@
         <v>4</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J185" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13245,14 +13251,14 @@
         <v>INSERT INTO categoria VALUES (100114004,'Ginsen','Ginsen-100114004','Ginsen-100114004 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A186" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B186" s="8" t="str">
         <f>+VLOOKUP(A186,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C186" s="12">
         <f t="shared" si="20"/>
@@ -13278,7 +13284,7 @@
         <v>5</v>
       </c>
       <c r="I186" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J186" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13297,14 +13303,14 @@
         <v>INSERT INTO categoria VALUES (100114005,'Nabo','Nabo-100114005','Nabo-100114005 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A187" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B187" s="8" t="str">
         <f>+VLOOKUP(A187,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C187" s="12">
         <f t="shared" si="20"/>
@@ -13330,7 +13336,7 @@
         <v>6</v>
       </c>
       <c r="I187" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J187" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13349,14 +13355,14 @@
         <v>INSERT INTO categoria VALUES (100114006,'Cúrcuma','Cúrcuma-100114006','Cúrcuma-100114006 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A188" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B188" s="8" t="str">
         <f>+VLOOKUP(A188,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C188" s="12">
         <f t="shared" si="20"/>
@@ -13382,7 +13388,7 @@
         <v>7</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J188" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13401,14 +13407,14 @@
         <v>INSERT INTO categoria VALUES (100114007,'Jengibre','Jengibre-100114007','Jengibre-100114007 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A189" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B189" s="8" t="str">
         <f>+VLOOKUP(A189,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C189" s="12">
         <f t="shared" si="20"/>
@@ -13434,7 +13440,7 @@
         <v>8</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J189" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13453,14 +13459,14 @@
         <v>INSERT INTO categoria VALUES (100114008,'Yuca','Yuca-100114008','Yuca-100114008 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A190" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B190" s="8" t="str">
         <f>+VLOOKUP(A190,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C190" s="12">
         <f t="shared" si="20"/>
@@ -13486,7 +13492,7 @@
         <v>9</v>
       </c>
       <c r="I190" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J190" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13505,14 +13511,14 @@
         <v>INSERT INTO categoria VALUES (100114009,'Olluca','Olluca-100114009','Olluca-100114009 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A191" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B191" s="8" t="str">
         <f>+VLOOKUP(A191,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C191" s="12">
         <f t="shared" si="20"/>
@@ -13538,7 +13544,7 @@
         <v>10</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J191" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13557,14 +13563,14 @@
         <v>INSERT INTO categoria VALUES (100114010,'Rábano','Rábano-100114010','Rábano-100114010 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A192" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B192" s="8" t="str">
         <f>+VLOOKUP(A192,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C192" s="12">
         <f t="shared" si="20"/>
@@ -13590,7 +13596,7 @@
         <v>11</v>
       </c>
       <c r="I192" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J192" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13609,14 +13615,14 @@
         <v>INSERT INTO categoria VALUES (100114011,'Remolacha','Remolacha-100114011','Remolacha-100114011 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A193" s="12">
         <f>+A192</f>
         <v>10</v>
       </c>
       <c r="B193" s="8" t="str">
         <f>+VLOOKUP(A193,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C193" s="12">
         <f>+C192</f>
@@ -13642,7 +13648,7 @@
         <v>12</v>
       </c>
       <c r="I193" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J193" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13661,14 +13667,14 @@
         <v>INSERT INTO categoria VALUES (100114012,'Wasabi','Wasabi-100114012','Wasabi-100114012 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A194" s="12">
         <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="B194" s="8" t="str">
         <f>+VLOOKUP(A194,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C194" s="12">
         <f t="shared" si="20"/>
@@ -13694,7 +13700,7 @@
         <v>13</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J194" s="11" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13713,14 +13719,14 @@
         <v>INSERT INTO categoria VALUES (100114013,'Zanahoria','Zanahoria-100114013','Zanahoria-100114013 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A195" s="12">
         <f>+A194</f>
         <v>10</v>
       </c>
       <c r="B195" s="8" t="str">
         <f>+VLOOKUP(A195,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C195" s="12">
         <f>+C194</f>
@@ -13746,7 +13752,7 @@
         <v>14</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J195" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13765,14 +13771,14 @@
         <v>INSERT INTO categoria VALUES (100114014,'Betarraga','Betarraga-100114014','Betarraga-100114014 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A196" s="12">
         <f>+A195</f>
         <v>10</v>
       </c>
       <c r="B196" s="8" t="str">
         <f>+VLOOKUP(A196,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C196" s="12">
         <f>+C195</f>
@@ -13798,7 +13804,7 @@
         <v>15</v>
       </c>
       <c r="I196" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J196" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13817,14 +13823,14 @@
         <v>INSERT INTO categoria VALUES (100114015,'Otros tubérculos','Otros tubérculos-100114015','Otros tubérculos-100114015 | Prod: Anuales-100114 | Sector: Agr-1001 | Industria: AGR - 10',100114);</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A197" s="12">
         <f>+A196</f>
         <v>10</v>
       </c>
       <c r="B197" s="8" t="str">
         <f>+VLOOKUP(A197,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C197" s="12">
         <f>+C196</f>
@@ -13850,7 +13856,7 @@
         <v>1</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J197" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13869,14 +13875,14 @@
         <v>INSERT INTO categoria VALUES (100115001,'Semillas de hortalizas','Semillas de hortalizas-100115001','Semillas de hortalizas-100115001 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A198" s="12">
         <f>+A196</f>
         <v>10</v>
       </c>
       <c r="B198" s="8" t="str">
         <f>+VLOOKUP(A198,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C198" s="12">
         <f>+C196</f>
@@ -13902,7 +13908,7 @@
         <v>2</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J198" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13921,14 +13927,14 @@
         <v>INSERT INTO categoria VALUES (100115002,'Semillas de frutas','Semillas de frutas-100115002','Semillas de frutas-100115002 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A199" s="12">
         <f>+A196</f>
         <v>10</v>
       </c>
       <c r="B199" s="8" t="str">
         <f>+VLOOKUP(A199,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C199" s="12">
         <f>+C196</f>
@@ -13954,7 +13960,7 @@
         <v>3</v>
       </c>
       <c r="I199" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J199" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -13973,14 +13979,14 @@
         <v>INSERT INTO categoria VALUES (100115003,'Otras semillas (cereales, legumbres y oleaginosas)','Otras semillas (cereales, legumbres y oleaginosas)-100115003','Otras semillas (cereales, legumbres y oleaginosas)-100115003 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A200" s="12">
         <f>+A199</f>
         <v>10</v>
       </c>
       <c r="B200" s="8" t="str">
         <f>+VLOOKUP(A200,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C200" s="12">
         <f>+C199</f>
@@ -14006,7 +14012,7 @@
         <v>4</v>
       </c>
       <c r="I200" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J200" s="33" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14025,14 +14031,14 @@
         <v>INSERT INTO categoria VALUES (100115004,'Otros','Otros-100115004','Otros-100115004 | Prod: Semillas-100115 | Sector: Agr-1001 | Industria: AGR - 10',100115);</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A201" s="12">
         <f>+A196</f>
         <v>10</v>
       </c>
       <c r="B201" s="8" t="str">
         <f>+VLOOKUP(A201,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C201" s="12">
         <f>+C196</f>
@@ -14058,7 +14064,7 @@
         <v>1</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J201" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14077,14 +14083,14 @@
         <v>INSERT INTO categoria VALUES (100116001,'Especias','Especias-100116001','Especias-100116001 | Prod: Especias-100116 | Sector: Agr-1001 | Industria: AGR - 10',100116);</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A202" s="12">
         <f>+A196</f>
         <v>10</v>
       </c>
       <c r="B202" s="8" t="str">
         <f>+VLOOKUP(A202,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C202" s="12">
         <f>+C196</f>
@@ -14110,7 +14116,7 @@
         <v>1</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J202" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14129,14 +14135,14 @@
         <v>INSERT INTO categoria VALUES (100117001,'Plantas para preparar bebidas','Plantas para preparar bebidas-100117001','Plantas para preparar bebidas-100117001 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A203" s="12">
         <f>+A196</f>
         <v>10</v>
       </c>
       <c r="B203" s="8" t="str">
         <f>+VLOOKUP(A203,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C203" s="12">
         <f>+C196</f>
@@ -14162,7 +14168,7 @@
         <v>2</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J203" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14181,14 +14187,14 @@
         <v>INSERT INTO categoria VALUES (100117002,'Plantas de fibra','Plantas de fibra-100117002','Plantas de fibra-100117002 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A204" s="12">
         <f>+A196</f>
         <v>10</v>
       </c>
       <c r="B204" s="8" t="str">
         <f>+VLOOKUP(A204,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C204" s="12">
         <f>+C196</f>
@@ -14214,7 +14220,7 @@
         <v>3</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J204" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14233,14 +14239,14 @@
         <v>INSERT INTO categoria VALUES (100117003,'Plantas aromáticas, medicinales y farmacéuticas','Plantas aromáticas, medicinales y farmacéuticas-100117003','Plantas aromáticas, medicinales y farmacéuticas-100117003 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A205" s="12">
         <f>+A196</f>
         <v>10</v>
       </c>
       <c r="B205" s="8" t="str">
         <f>+VLOOKUP(A205,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C205" s="12">
         <f>+C196</f>
@@ -14266,7 +14272,7 @@
         <v>4</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J205" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14285,14 +14291,14 @@
         <v>INSERT INTO categoria VALUES (100117004,'Otras plantas','Otras plantas-100117004','Otras plantas-100117004 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A206" s="12">
         <f>+A205</f>
         <v>10</v>
       </c>
       <c r="B206" s="8" t="str">
         <f>+VLOOKUP(A206,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C206" s="12">
         <f>+C205</f>
@@ -14318,7 +14324,7 @@
         <v>5</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J206" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14337,14 +14343,14 @@
         <v>INSERT INTO categoria VALUES (100117005,'Flores','Flores-100117005','Flores-100117005 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A207" s="12">
         <f>+A205</f>
         <v>10</v>
       </c>
       <c r="B207" s="8" t="str">
         <f>+VLOOKUP(A207,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C207" s="12">
         <f>+C205</f>
@@ -14370,7 +14376,7 @@
         <v>6</v>
       </c>
       <c r="I207" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J207" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14389,14 +14395,14 @@
         <v>INSERT INTO categoria VALUES (100117006,'Forraje','Forraje-100117006','Forraje-100117006 | Prod: Forraje-100117 | Sector: Agr-1001 | Industria: AGR - 10',100117);</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A208" s="12">
         <f>+A205</f>
         <v>10</v>
       </c>
       <c r="B208" s="8" t="str">
         <f>+VLOOKUP(A208,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C208" s="12">
         <f>+C205</f>
@@ -14422,7 +14428,7 @@
         <v>1</v>
       </c>
       <c r="I208" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J208" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
@@ -14441,14 +14447,14 @@
         <v>INSERT INTO categoria VALUES (100118001,'Mano de Obra en Industria Frutícola','Mano de Obra en Industria Frutícola-100118001','Mano de Obra en Industria Frutícola-100118001 | Prod: Mano Obra-100118 | Sector: Agr-1001 | Industria: AGR - 10',100118);</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:13" ht="42" x14ac:dyDescent="0.35">
       <c r="A209" s="12">
         <f>+A205</f>
         <v>10</v>
       </c>
       <c r="B209" s="8" t="str">
         <f>+VLOOKUP(A209,Industria[],2,0)</f>
-        <v>Agricultura y Ganadería</v>
+        <v>Agropecuario y Forestal</v>
       </c>
       <c r="C209" s="12">
         <f>+C205</f>
@@ -14474,7 +14480,7 @@
         <v>2</v>
       </c>
       <c r="I209" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J209" s="36" t="str">
         <f>+Categorias[[#This Row],[Categoría]]&amp;"-"&amp;Categorias[[#This Row],[Id_categoría]]</f>
